--- a/medicine/Mort/Cimetière_du_Nord_(Périgueux)/Cimetière_du_Nord_(Périgueux).xlsx
+++ b/medicine/Mort/Cimetière_du_Nord_(Périgueux)/Cimetière_du_Nord_(Périgueux).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(P%C3%A9rigueux)</t>
+          <t>Cimetière_du_Nord_(Périgueux)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Nord est l'un des quatre cimetières municipaux de la ville de Périgueux[1], en Dordogne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Nord est l'un des quatre cimetières municipaux de la ville de Périgueux, en Dordogne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(P%C3%A9rigueux)</t>
+          <t>Cimetière_du_Nord_(Périgueux)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Nord est situé dans le nord-est de la commune de Périgueux, au 101 avenue Georges-Pompidou (anciennement route de Paris)[2], en limite des communes de Champcevinel et Trélissac. De forme approximativement trapézoïdale, il s'étend sur plus de sept hectares.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Nord est situé dans le nord-est de la commune de Périgueux, au 101 avenue Georges-Pompidou (anciennement route de Paris), en limite des communes de Champcevinel et Trélissac. De forme approximativement trapézoïdale, il s'étend sur plus de sept hectares.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(P%C3%A9rigueux)</t>
+          <t>Cimetière_du_Nord_(Périgueux)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1858, la ville de Périgueux décide de créer un nouveau cimetière pour la paroisse Saint-Front. En 1868, une ordonnance autorise sa création  dans le quartier des Romains pour les paroisses de la Cité, Saint-Front et Saint-Martin[2].
-Ouvert le 1er janvier 1870[2], ce cimetière a la particularité d'être en pente avec des allées sinueuses. On y accède en haut par un grand bâtiment d'entrée. Peu de tombes présentent un intérêt artistique, hormis la partie haute près de l'entrée avec des chapelles familiales ouvragées (comme la chapelle Magne et la chapelle Delsuc avec d'étonnantes gargouilles) près de l'entrée et quelques tombes anciennes çà et là[3]. Le cimetière n'est ni arboré ni végétalisé. Il possède un carré militaire[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1858, la ville de Périgueux décide de créer un nouveau cimetière pour la paroisse Saint-Front. En 1868, une ordonnance autorise sa création  dans le quartier des Romains pour les paroisses de la Cité, Saint-Front et Saint-Martin.
+Ouvert le 1er janvier 1870, ce cimetière a la particularité d'être en pente avec des allées sinueuses. On y accède en haut par un grand bâtiment d'entrée. Peu de tombes présentent un intérêt artistique, hormis la partie haute près de l'entrée avec des chapelles familiales ouvragées (comme la chapelle Magne et la chapelle Delsuc avec d'étonnantes gargouilles) près de l'entrée et quelques tombes anciennes çà et là. Le cimetière n'est ni arboré ni végétalisé. Il possède un carré militaire.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(P%C3%A9rigueux)</t>
+          <t>Cimetière_du_Nord_(Périgueux)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Fanlac (né Beaucornu, 1918-1991), éditeur.
 Pierre-Paul Grassé (1895-1985), zoologiste, membre de l'Académie des sciences.
